--- a/Project_Inheritance_Documentation/Image_processing_Details/Vaibhav- Handover.xlsx
+++ b/Project_Inheritance_Documentation/Image_processing_Details/Vaibhav- Handover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f337a85aa8871bf9/Desktop/japanese_project/japanese-handwriting-analysis/Project_Inheritance_Documentation/Image_processing_Details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{515D2D5C-2A74-45DE-9687-23362DBE8B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27DF1C8A-EC50-4723-995F-F95B237A4810}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{515D2D5C-2A74-45DE-9687-23362DBE8B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F388CF-B22A-417D-976A-D42DD516EE24}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>List missing pieces (code, documentation, resources, etc.) that need to be transferred or clarified.</t>
   </si>
   <si>
-    <t>Name of the person inheriting the task.</t>
-  </si>
-  <si>
     <t>Date by which handover needs to be completed.</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Better noise-handling techniques, additional fine-tuning for structural restoration.</t>
   </si>
   <si>
-    <t>New team</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Yes but not inherited</t>
+  </si>
+  <si>
+    <t>Name of the person passing the inheritance.</t>
+  </si>
+  <si>
+    <t>Vaibhav Nohria</t>
   </si>
 </sst>
 </file>
@@ -650,9 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="95" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="78" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -668,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -682,63 +682,63 @@
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -754,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -767,174 +767,174 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
